--- a/teamlog.xlsx
+++ b/teamlog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="146">
   <si>
     <t>Team_ID</t>
   </si>
@@ -97,6 +97,15 @@
     <t>PTS</t>
   </si>
   <si>
+    <t>0022400599</t>
+  </si>
+  <si>
+    <t>0022400583</t>
+  </si>
+  <si>
+    <t>0022400566</t>
+  </si>
+  <si>
     <t>0022400559</t>
   </si>
   <si>
@@ -217,6 +226,15 @@
     <t>0022400074</t>
   </si>
   <si>
+    <t>JAN 20, 2025</t>
+  </si>
+  <si>
+    <t>JAN 17, 2025</t>
+  </si>
+  <si>
+    <t>JAN 15, 2025</t>
+  </si>
+  <si>
     <t>JAN 14, 2025</t>
   </si>
   <si>
@@ -335,6 +353,15 @@
   </si>
   <si>
     <t>OCT 24, 2024</t>
+  </si>
+  <si>
+    <t>DAL @ CHA</t>
+  </si>
+  <si>
+    <t>DAL vs. OKC</t>
+  </si>
+  <si>
+    <t>DAL @ NOP</t>
   </si>
   <si>
     <t>DAL vs. DEN</t>
@@ -782,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB41"/>
+  <dimension ref="A1:AB44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -882,22 +909,22 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>0.55</v>
+        <v>0.535</v>
       </c>
       <c r="J2">
         <v>240</v>
@@ -906,55 +933,55 @@
         <v>38</v>
       </c>
       <c r="L2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M2">
-        <v>0.422</v>
+        <v>0.432</v>
       </c>
       <c r="N2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O2">
         <v>32</v>
       </c>
       <c r="P2">
-        <v>0.281</v>
+        <v>0.188</v>
       </c>
       <c r="Q2">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <v>26</v>
+      </c>
+      <c r="S2">
+        <v>0.885</v>
+      </c>
+      <c r="T2">
+        <v>16</v>
+      </c>
+      <c r="U2">
+        <v>35</v>
+      </c>
+      <c r="V2">
+        <v>51</v>
+      </c>
+      <c r="W2">
+        <v>19</v>
+      </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2">
         <v>14</v>
       </c>
-      <c r="R2">
-        <v>22</v>
-      </c>
-      <c r="S2">
-        <v>0.636</v>
-      </c>
-      <c r="T2">
-        <v>8</v>
-      </c>
-      <c r="U2">
-        <v>22</v>
-      </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>27</v>
-      </c>
-      <c r="X2">
-        <v>14</v>
-      </c>
-      <c r="Y2">
-        <v>6</v>
-      </c>
-      <c r="Z2">
-        <v>12</v>
-      </c>
       <c r="AA2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -968,79 +995,79 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>0.5639999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="J3">
         <v>240</v>
       </c>
       <c r="K3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M3">
-        <v>0.412</v>
+        <v>0.493</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P3">
-        <v>0.353</v>
+        <v>0.39</v>
       </c>
       <c r="Q3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R3">
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>0.727</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>37</v>
+      </c>
+      <c r="V3">
+        <v>43</v>
+      </c>
+      <c r="W3">
         <v>25</v>
       </c>
-      <c r="S3">
-        <v>0.76</v>
-      </c>
-      <c r="T3">
-        <v>8</v>
-      </c>
-      <c r="U3">
-        <v>29</v>
-      </c>
-      <c r="V3">
-        <v>37</v>
-      </c>
-      <c r="W3">
-        <v>27</v>
-      </c>
       <c r="X3">
+        <v>11</v>
+      </c>
+      <c r="Y3">
         <v>7</v>
       </c>
-      <c r="Y3">
-        <v>5</v>
-      </c>
       <c r="Z3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB3">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -1054,79 +1081,79 @@
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>22</v>
       </c>
       <c r="H4">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4">
-        <v>0.579</v>
+        <v>0.537</v>
       </c>
       <c r="J4">
         <v>240</v>
       </c>
       <c r="K4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M4">
-        <v>0.455</v>
+        <v>0.478</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P4">
-        <v>0.333</v>
+        <v>0.343</v>
       </c>
       <c r="Q4">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="R4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S4">
-        <v>0.9</v>
+        <v>0.72</v>
       </c>
       <c r="T4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="U4">
         <v>37</v>
       </c>
       <c r="V4">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="W4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB4">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1140,79 +1167,79 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>0.5679999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="J5">
         <v>240</v>
       </c>
       <c r="K5">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L5">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M5">
-        <v>0.523</v>
+        <v>0.422</v>
       </c>
       <c r="N5">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="O5">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P5">
-        <v>0.474</v>
+        <v>0.281</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="R5">
+        <v>22</v>
+      </c>
+      <c r="S5">
+        <v>0.636</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>22</v>
+      </c>
+      <c r="V5">
+        <v>30</v>
+      </c>
+      <c r="W5">
+        <v>27</v>
+      </c>
+      <c r="X5">
         <v>14</v>
       </c>
-      <c r="S5">
-        <v>0.714</v>
-      </c>
-      <c r="T5">
-        <v>11</v>
-      </c>
-      <c r="U5">
-        <v>33</v>
-      </c>
-      <c r="V5">
-        <v>44</v>
-      </c>
-      <c r="W5">
-        <v>29</v>
-      </c>
-      <c r="X5">
-        <v>7</v>
-      </c>
       <c r="Y5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z5">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB5">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1226,79 +1253,79 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6">
-        <v>0.556</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="J6">
         <v>240</v>
       </c>
       <c r="K6">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M6">
-        <v>0.408</v>
+        <v>0.412</v>
       </c>
       <c r="N6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P6">
-        <v>0.361</v>
+        <v>0.353</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="R6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S6">
-        <v>0.733</v>
+        <v>0.76</v>
       </c>
       <c r="T6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="U6">
+        <v>29</v>
+      </c>
+      <c r="V6">
         <v>37</v>
       </c>
-      <c r="V6">
-        <v>50</v>
-      </c>
       <c r="W6">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X6">
         <v>7</v>
       </c>
       <c r="Y6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA6">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB6">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1312,79 +1339,79 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>0.571</v>
+        <v>0.579</v>
       </c>
       <c r="J7">
         <v>240</v>
       </c>
       <c r="K7">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="M7">
-        <v>0.43</v>
+        <v>0.455</v>
       </c>
       <c r="N7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="P7">
-        <v>0.273</v>
+        <v>0.333</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R7">
         <v>30</v>
       </c>
       <c r="S7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="T7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="U7">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V7">
         <v>53</v>
       </c>
       <c r="W7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Z7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AA7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB7">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1398,79 +1425,79 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>0.588</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M8">
-        <v>0.533</v>
+        <v>0.523</v>
       </c>
       <c r="N8">
+        <v>18</v>
+      </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
+      <c r="P8">
+        <v>0.474</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>0.714</v>
+      </c>
+      <c r="T8">
         <v>11</v>
       </c>
-      <c r="O8">
-        <v>28</v>
-      </c>
-      <c r="P8">
-        <v>0.393</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-      <c r="R8">
+      <c r="U8">
+        <v>33</v>
+      </c>
+      <c r="V8">
+        <v>44</v>
+      </c>
+      <c r="W8">
+        <v>29</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>10</v>
+      </c>
+      <c r="AA8">
         <v>16</v>
       </c>
-      <c r="S8">
-        <v>0.5</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8">
-        <v>32</v>
-      </c>
-      <c r="V8">
-        <v>38</v>
-      </c>
-      <c r="W8">
-        <v>19</v>
-      </c>
-      <c r="X8">
-        <v>9</v>
-      </c>
-      <c r="Y8">
-        <v>12</v>
-      </c>
-      <c r="Z8">
-        <v>20</v>
-      </c>
-      <c r="AA8">
-        <v>20</v>
-      </c>
       <c r="AB8">
-        <v>99</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1484,10 +1511,10 @@
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -1496,67 +1523,67 @@
         <v>20</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>0.606</v>
+        <v>0.556</v>
       </c>
       <c r="J9">
         <v>240</v>
       </c>
       <c r="K9">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L9">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>0.421</v>
+        <v>0.408</v>
       </c>
       <c r="N9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="P9">
-        <v>0.387</v>
+        <v>0.361</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="R9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="S9">
-        <v>0.828</v>
+        <v>0.733</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="U9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="V9">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="X9">
+        <v>7</v>
+      </c>
+      <c r="Y9">
         <v>8</v>
       </c>
-      <c r="Y9">
-        <v>13</v>
-      </c>
       <c r="Z9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB9">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1570,10 +1597,10 @@
         <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
@@ -1582,10 +1609,10 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10">
-        <v>0.625</v>
+        <v>0.571</v>
       </c>
       <c r="J10">
         <v>240</v>
@@ -1594,52 +1621,52 @@
         <v>43</v>
       </c>
       <c r="L10">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>0.483</v>
+        <v>0.43</v>
       </c>
       <c r="N10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="P10">
-        <v>0.395</v>
+        <v>0.273</v>
       </c>
       <c r="Q10">
+        <v>24</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10">
+        <v>0.8</v>
+      </c>
+      <c r="T10">
         <v>21</v>
       </c>
-      <c r="R10">
-        <v>26</v>
-      </c>
-      <c r="S10">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="T10">
-        <v>10</v>
-      </c>
       <c r="U10">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="V10">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="W10">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="X10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Z10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA10">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB10">
         <v>122</v>
@@ -1656,79 +1683,79 @@
         <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>20</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>0.645</v>
+        <v>0.588</v>
       </c>
       <c r="J11">
         <v>240</v>
       </c>
       <c r="K11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L11">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M11">
-        <v>0.438</v>
+        <v>0.533</v>
       </c>
       <c r="N11">
+        <v>11</v>
+      </c>
+      <c r="O11">
+        <v>28</v>
+      </c>
+      <c r="P11">
+        <v>0.393</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>32</v>
+      </c>
+      <c r="V11">
+        <v>38</v>
+      </c>
+      <c r="W11">
+        <v>19</v>
+      </c>
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11">
         <v>12</v>
       </c>
-      <c r="O11">
-        <v>34</v>
-      </c>
-      <c r="P11">
-        <v>0.353</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
-      </c>
-      <c r="R11">
-        <v>17</v>
-      </c>
-      <c r="S11">
-        <v>0.9409999999999999</v>
-      </c>
-      <c r="T11">
-        <v>7</v>
-      </c>
-      <c r="U11">
-        <v>34</v>
-      </c>
-      <c r="V11">
-        <v>41</v>
-      </c>
-      <c r="W11">
-        <v>24</v>
-      </c>
-      <c r="X11">
-        <v>6</v>
-      </c>
-      <c r="Y11">
-        <v>5</v>
-      </c>
       <c r="Z11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AA11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AB11">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -1742,79 +1769,79 @@
         <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I12">
-        <v>0.633</v>
+        <v>0.606</v>
       </c>
       <c r="J12">
         <v>240</v>
       </c>
       <c r="K12">
+        <v>32</v>
+      </c>
+      <c r="L12">
+        <v>76</v>
+      </c>
+      <c r="M12">
+        <v>0.421</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>31</v>
+      </c>
+      <c r="P12">
+        <v>0.387</v>
+      </c>
+      <c r="Q12">
+        <v>24</v>
+      </c>
+      <c r="R12">
+        <v>29</v>
+      </c>
+      <c r="S12">
+        <v>0.828</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
+        <v>34</v>
+      </c>
+      <c r="V12">
         <v>36</v>
       </c>
-      <c r="L12">
-        <v>87</v>
-      </c>
-      <c r="M12">
-        <v>0.414</v>
-      </c>
-      <c r="N12">
-        <v>16</v>
-      </c>
-      <c r="O12">
-        <v>43</v>
-      </c>
-      <c r="P12">
-        <v>0.372</v>
-      </c>
-      <c r="Q12">
-        <v>11</v>
-      </c>
-      <c r="R12">
-        <v>11</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>11</v>
-      </c>
-      <c r="U12">
-        <v>32</v>
-      </c>
-      <c r="V12">
-        <v>43</v>
-      </c>
       <c r="W12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z12">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA12">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB12">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -1828,79 +1855,79 @@
         <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13">
-        <v>0.655</v>
+        <v>0.625</v>
       </c>
       <c r="J13">
         <v>240</v>
       </c>
       <c r="K13">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L13">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M13">
-        <v>0.533</v>
+        <v>0.483</v>
       </c>
       <c r="N13">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O13">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P13">
-        <v>0.333</v>
+        <v>0.395</v>
       </c>
       <c r="Q13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="R13">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="S13">
-        <v>0.706</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>40</v>
+      </c>
+      <c r="W13">
+        <v>20</v>
+      </c>
+      <c r="X13">
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
         <v>13</v>
-      </c>
-      <c r="U13">
-        <v>28</v>
-      </c>
-      <c r="V13">
-        <v>41</v>
-      </c>
-      <c r="W13">
-        <v>27</v>
-      </c>
-      <c r="X13">
-        <v>10</v>
-      </c>
-      <c r="Y13">
-        <v>4</v>
-      </c>
-      <c r="Z13">
-        <v>10</v>
       </c>
       <c r="AA13">
         <v>21</v>
       </c>
       <c r="AB13">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1914,79 +1941,79 @@
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
         <v>5</v>
       </c>
       <c r="G14">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14">
-        <v>0.643</v>
+        <v>0.645</v>
       </c>
       <c r="J14">
         <v>240</v>
       </c>
       <c r="K14">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L14">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M14">
-        <v>0.455</v>
+        <v>0.438</v>
       </c>
       <c r="N14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O14">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P14">
-        <v>0.4</v>
+        <v>0.353</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S14">
-        <v>0.864</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="T14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V14">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W14">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y14">
         <v>5</v>
       </c>
       <c r="Z14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA14">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB14">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -2000,79 +2027,79 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
       <c r="G15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15">
-        <v>0.63</v>
+        <v>0.633</v>
       </c>
       <c r="J15">
         <v>240</v>
       </c>
       <c r="K15">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L15">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M15">
-        <v>0.395</v>
+        <v>0.414</v>
       </c>
       <c r="N15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O15">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="P15">
-        <v>0.233</v>
+        <v>0.372</v>
       </c>
       <c r="Q15">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="R15">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="S15">
-        <v>0.714</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="U15">
         <v>32</v>
       </c>
       <c r="V15">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="W15">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA15">
         <v>13</v>
       </c>
       <c r="AB15">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -2086,79 +2113,79 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I16">
-        <v>0.654</v>
+        <v>0.655</v>
       </c>
       <c r="J16">
         <v>240</v>
       </c>
       <c r="K16">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L16">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M16">
-        <v>0.598</v>
+        <v>0.533</v>
       </c>
       <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>36</v>
+      </c>
+      <c r="P16">
+        <v>0.333</v>
+      </c>
+      <c r="Q16">
+        <v>24</v>
+      </c>
+      <c r="R16">
+        <v>34</v>
+      </c>
+      <c r="S16">
+        <v>0.706</v>
+      </c>
+      <c r="T16">
+        <v>13</v>
+      </c>
+      <c r="U16">
+        <v>28</v>
+      </c>
+      <c r="V16">
+        <v>41</v>
+      </c>
+      <c r="W16">
+        <v>27</v>
+      </c>
+      <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+      <c r="Z16">
+        <v>10</v>
+      </c>
+      <c r="AA16">
         <v>21</v>
       </c>
-      <c r="O16">
-        <v>41</v>
-      </c>
-      <c r="P16">
-        <v>0.512</v>
-      </c>
-      <c r="Q16">
-        <v>18</v>
-      </c>
-      <c r="R16">
-        <v>25</v>
-      </c>
-      <c r="S16">
-        <v>0.72</v>
-      </c>
-      <c r="T16">
-        <v>10</v>
-      </c>
-      <c r="U16">
-        <v>37</v>
-      </c>
-      <c r="V16">
-        <v>47</v>
-      </c>
-      <c r="W16">
-        <v>36</v>
-      </c>
-      <c r="X16">
-        <v>8</v>
-      </c>
-      <c r="Y16">
-        <v>5</v>
-      </c>
-      <c r="Z16">
-        <v>15</v>
-      </c>
-      <c r="AA16">
-        <v>12</v>
-      </c>
       <c r="AB16">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:28">
@@ -2172,79 +2199,79 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17">
-        <v>0.64</v>
+        <v>0.643</v>
       </c>
       <c r="J17">
         <v>240</v>
       </c>
       <c r="K17">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L17">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M17">
-        <v>0.475</v>
+        <v>0.455</v>
       </c>
       <c r="N17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P17">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S17">
-        <v>0.6840000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U17">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="V17">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W17">
         <v>25</v>
       </c>
       <c r="X17">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z17">
+        <v>11</v>
+      </c>
+      <c r="AA17">
         <v>18</v>
       </c>
-      <c r="AA17">
-        <v>12</v>
-      </c>
       <c r="AB17">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2258,79 +2285,79 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I18">
-        <v>0.667</v>
+        <v>0.63</v>
       </c>
       <c r="J18">
         <v>240</v>
       </c>
       <c r="K18">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L18">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M18">
-        <v>0.469</v>
+        <v>0.395</v>
       </c>
       <c r="N18">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P18">
-        <v>0.378</v>
+        <v>0.233</v>
       </c>
       <c r="Q18">
+        <v>20</v>
+      </c>
+      <c r="R18">
+        <v>28</v>
+      </c>
+      <c r="S18">
+        <v>0.714</v>
+      </c>
+      <c r="T18">
+        <v>8</v>
+      </c>
+      <c r="U18">
         <v>32</v>
       </c>
-      <c r="R18">
-        <v>37</v>
-      </c>
-      <c r="S18">
-        <v>0.865</v>
-      </c>
-      <c r="T18">
-        <v>14</v>
-      </c>
-      <c r="U18">
-        <v>38</v>
-      </c>
       <c r="V18">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="W18">
         <v>21</v>
       </c>
       <c r="X18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Z18">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AA18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AB18">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:28">
@@ -2344,79 +2371,79 @@
         <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
       </c>
       <c r="G19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I19">
-        <v>0.652</v>
+        <v>0.654</v>
       </c>
       <c r="J19">
         <v>240</v>
       </c>
       <c r="K19">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L19">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M19">
-        <v>0.539</v>
+        <v>0.598</v>
       </c>
       <c r="N19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P19">
-        <v>0.526</v>
+        <v>0.512</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R19">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S19">
-        <v>0.778</v>
+        <v>0.72</v>
       </c>
       <c r="T19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U19">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="V19">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="W19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="X19">
         <v>8</v>
       </c>
       <c r="Y19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z19">
         <v>15</v>
       </c>
       <c r="AA19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AB19">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:28">
@@ -2430,79 +2457,79 @@
         <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I20">
-        <v>0.636</v>
+        <v>0.64</v>
       </c>
       <c r="J20">
         <v>240</v>
       </c>
       <c r="K20">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L20">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>0.481</v>
+        <v>0.475</v>
       </c>
       <c r="N20">
+        <v>15</v>
+      </c>
+      <c r="O20">
+        <v>36</v>
+      </c>
+      <c r="P20">
+        <v>0.417</v>
+      </c>
+      <c r="Q20">
         <v>13</v>
       </c>
-      <c r="O20">
-        <v>32</v>
-      </c>
-      <c r="P20">
-        <v>0.406</v>
-      </c>
-      <c r="Q20">
-        <v>30</v>
-      </c>
       <c r="R20">
+        <v>19</v>
+      </c>
+      <c r="S20">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="T20">
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <v>37</v>
+      </c>
+      <c r="V20">
         <v>44</v>
       </c>
-      <c r="S20">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="T20">
-        <v>14</v>
-      </c>
-      <c r="U20">
-        <v>35</v>
-      </c>
-      <c r="V20">
-        <v>49</v>
-      </c>
       <c r="W20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z20">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AA20">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB20">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2516,79 +2543,79 @@
         <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>8</v>
       </c>
       <c r="I21">
-        <v>0.619</v>
+        <v>0.667</v>
       </c>
       <c r="J21">
         <v>240</v>
       </c>
       <c r="K21">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L21">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M21">
-        <v>0.552</v>
+        <v>0.469</v>
       </c>
       <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>45</v>
+      </c>
+      <c r="P21">
+        <v>0.378</v>
+      </c>
+      <c r="Q21">
+        <v>32</v>
+      </c>
+      <c r="R21">
+        <v>37</v>
+      </c>
+      <c r="S21">
+        <v>0.865</v>
+      </c>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21">
+        <v>38</v>
+      </c>
+      <c r="V21">
+        <v>52</v>
+      </c>
+      <c r="W21">
+        <v>21</v>
+      </c>
+      <c r="X21">
+        <v>10</v>
+      </c>
+      <c r="Y21">
+        <v>8</v>
+      </c>
+      <c r="Z21">
         <v>18</v>
       </c>
-      <c r="O21">
-        <v>36</v>
-      </c>
-      <c r="P21">
-        <v>0.5</v>
-      </c>
-      <c r="Q21">
-        <v>23</v>
-      </c>
-      <c r="R21">
-        <v>29</v>
-      </c>
-      <c r="S21">
-        <v>0.793</v>
-      </c>
-      <c r="T21">
-        <v>8</v>
-      </c>
-      <c r="U21">
-        <v>25</v>
-      </c>
-      <c r="V21">
-        <v>33</v>
-      </c>
-      <c r="W21">
-        <v>33</v>
-      </c>
-      <c r="X21">
-        <v>13</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>13</v>
-      </c>
       <c r="AA21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB21">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -2602,79 +2629,79 @@
         <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
       </c>
       <c r="G22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>8</v>
       </c>
       <c r="I22">
-        <v>0.6</v>
+        <v>0.652</v>
       </c>
       <c r="J22">
         <v>240</v>
       </c>
       <c r="K22">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L22">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M22">
-        <v>0.456</v>
+        <v>0.539</v>
       </c>
       <c r="N22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O22">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22">
-        <v>0.385</v>
+        <v>0.526</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="R22">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="S22">
-        <v>0.6</v>
+        <v>0.778</v>
       </c>
       <c r="T22">
+        <v>13</v>
+      </c>
+      <c r="U22">
+        <v>45</v>
+      </c>
+      <c r="V22">
+        <v>58</v>
+      </c>
+      <c r="W22">
+        <v>27</v>
+      </c>
+      <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22">
         <v>12</v>
-      </c>
-      <c r="U22">
-        <v>36</v>
-      </c>
-      <c r="V22">
-        <v>48</v>
-      </c>
-      <c r="W22">
-        <v>30</v>
-      </c>
-      <c r="X22">
-        <v>12</v>
-      </c>
-      <c r="Y22">
-        <v>6</v>
       </c>
       <c r="Z22">
         <v>15</v>
       </c>
       <c r="AA22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AB22">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:28">
@@ -2688,79 +2715,79 @@
         <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H23">
         <v>8</v>
       </c>
       <c r="I23">
-        <v>0.579</v>
+        <v>0.636</v>
       </c>
       <c r="J23">
         <v>240</v>
       </c>
       <c r="K23">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="L23">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M23">
-        <v>0.5649999999999999</v>
+        <v>0.481</v>
       </c>
       <c r="N23">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O23">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23">
-        <v>0.515</v>
+        <v>0.406</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="R23">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="S23">
-        <v>0.762</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="T23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V23">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="W23">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z23">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AA23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB23">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2774,79 +2801,79 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
         <v>5</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H24">
         <v>8</v>
       </c>
       <c r="I24">
-        <v>0.556</v>
+        <v>0.619</v>
       </c>
       <c r="J24">
         <v>240</v>
       </c>
       <c r="K24">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L24">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M24">
+        <v>0.552</v>
+      </c>
+      <c r="N24">
+        <v>18</v>
+      </c>
+      <c r="O24">
+        <v>36</v>
+      </c>
+      <c r="P24">
         <v>0.5</v>
       </c>
-      <c r="N24">
-        <v>16</v>
-      </c>
-      <c r="O24">
-        <v>35</v>
-      </c>
-      <c r="P24">
-        <v>0.457</v>
-      </c>
       <c r="Q24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R24">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S24">
-        <v>0.864</v>
+        <v>0.793</v>
       </c>
       <c r="T24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="V24">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="W24">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="X24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA24">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB24">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2860,79 +2887,79 @@
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H25">
         <v>8</v>
       </c>
       <c r="I25">
-        <v>0.529</v>
+        <v>0.6</v>
       </c>
       <c r="J25">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="K25">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="L25">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="M25">
-        <v>0.419</v>
+        <v>0.456</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O25">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25">
-        <v>0.25</v>
+        <v>0.385</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="R25">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S25">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="T25">
+        <v>12</v>
+      </c>
+      <c r="U25">
+        <v>36</v>
+      </c>
+      <c r="V25">
+        <v>48</v>
+      </c>
+      <c r="W25">
+        <v>30</v>
+      </c>
+      <c r="X25">
+        <v>12</v>
+      </c>
+      <c r="Y25">
+        <v>6</v>
+      </c>
+      <c r="Z25">
         <v>15</v>
       </c>
-      <c r="U25">
-        <v>44</v>
-      </c>
-      <c r="V25">
-        <v>59</v>
-      </c>
-      <c r="W25">
-        <v>29</v>
-      </c>
-      <c r="X25">
-        <v>6</v>
-      </c>
-      <c r="Y25">
-        <v>9</v>
-      </c>
-      <c r="Z25">
-        <v>13</v>
-      </c>
       <c r="AA25">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB25">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2946,79 +2973,79 @@
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
         <v>5</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>0.5629999999999999</v>
+        <v>0.579</v>
       </c>
       <c r="J26">
         <v>240</v>
       </c>
       <c r="K26">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L26">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M26">
-        <v>0.505</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="N26">
+        <v>17</v>
+      </c>
+      <c r="O26">
+        <v>33</v>
+      </c>
+      <c r="P26">
+        <v>0.515</v>
+      </c>
+      <c r="Q26">
+        <v>16</v>
+      </c>
+      <c r="R26">
+        <v>21</v>
+      </c>
+      <c r="S26">
+        <v>0.762</v>
+      </c>
+      <c r="T26">
         <v>10</v>
       </c>
-      <c r="O26">
+      <c r="U26">
+        <v>33</v>
+      </c>
+      <c r="V26">
+        <v>43</v>
+      </c>
+      <c r="W26">
         <v>27</v>
       </c>
-      <c r="P26">
-        <v>0.37</v>
-      </c>
-      <c r="Q26">
-        <v>21</v>
-      </c>
-      <c r="R26">
-        <v>27</v>
-      </c>
-      <c r="S26">
-        <v>0.778</v>
-      </c>
-      <c r="T26">
-        <v>12</v>
-      </c>
-      <c r="U26">
-        <v>32</v>
-      </c>
-      <c r="V26">
-        <v>44</v>
-      </c>
-      <c r="W26">
-        <v>24</v>
-      </c>
       <c r="X26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Y26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z26">
         <v>13</v>
       </c>
       <c r="AA26">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AB26">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -3032,79 +3059,79 @@
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
       </c>
       <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
         <v>8</v>
       </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
       <c r="I27">
-        <v>0.533</v>
+        <v>0.556</v>
       </c>
       <c r="J27">
         <v>240</v>
       </c>
       <c r="K27">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L27">
         <v>94</v>
       </c>
       <c r="M27">
-        <v>0.521</v>
+        <v>0.5</v>
       </c>
       <c r="N27">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O27">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P27">
-        <v>0.452</v>
+        <v>0.457</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S27">
-        <v>0.8</v>
+        <v>0.864</v>
       </c>
       <c r="T27">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="U27">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V27">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="W27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X27">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Y27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z27">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AA27">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB27">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -3118,79 +3145,79 @@
         <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.529</v>
       </c>
       <c r="J28">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K28">
+        <v>44</v>
+      </c>
+      <c r="L28">
+        <v>105</v>
+      </c>
+      <c r="M28">
+        <v>0.419</v>
+      </c>
+      <c r="N28">
+        <v>10</v>
+      </c>
+      <c r="O28">
         <v>40</v>
       </c>
-      <c r="L28">
-        <v>84</v>
-      </c>
-      <c r="M28">
-        <v>0.476</v>
-      </c>
-      <c r="N28">
-        <v>11</v>
-      </c>
-      <c r="O28">
-        <v>27</v>
-      </c>
       <c r="P28">
-        <v>0.407</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R28">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S28">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="T28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U28">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="V28">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="W28">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="X28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y28">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Z28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AA28">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AB28">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -3204,79 +3231,79 @@
         <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
       <c r="G29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>7</v>
       </c>
       <c r="I29">
-        <v>0.462</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="J29">
         <v>240</v>
       </c>
       <c r="K29">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L29">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M29">
-        <v>0.468</v>
+        <v>0.505</v>
       </c>
       <c r="N29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O29">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P29">
-        <v>0.258</v>
+        <v>0.37</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R29">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S29">
         <v>0.778</v>
       </c>
       <c r="T29">
+        <v>12</v>
+      </c>
+      <c r="U29">
+        <v>32</v>
+      </c>
+      <c r="V29">
+        <v>44</v>
+      </c>
+      <c r="W29">
+        <v>24</v>
+      </c>
+      <c r="X29">
+        <v>11</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
         <v>13</v>
       </c>
-      <c r="U29">
-        <v>40</v>
-      </c>
-      <c r="V29">
-        <v>53</v>
-      </c>
-      <c r="W29">
-        <v>26</v>
-      </c>
-      <c r="X29">
-        <v>9</v>
-      </c>
-      <c r="Y29">
-        <v>7</v>
-      </c>
-      <c r="Z29">
-        <v>14</v>
-      </c>
       <c r="AA29">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AB29">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3290,79 +3317,79 @@
         <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H30">
         <v>7</v>
       </c>
       <c r="I30">
-        <v>0.417</v>
+        <v>0.533</v>
       </c>
       <c r="J30">
         <v>240</v>
       </c>
       <c r="K30">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L30">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="M30">
-        <v>0.506</v>
+        <v>0.521</v>
       </c>
       <c r="N30">
+        <v>14</v>
+      </c>
+      <c r="O30">
+        <v>31</v>
+      </c>
+      <c r="P30">
+        <v>0.452</v>
+      </c>
+      <c r="Q30">
+        <v>20</v>
+      </c>
+      <c r="R30">
+        <v>25</v>
+      </c>
+      <c r="S30">
+        <v>0.8</v>
+      </c>
+      <c r="T30">
+        <v>14</v>
+      </c>
+      <c r="U30">
+        <v>34</v>
+      </c>
+      <c r="V30">
+        <v>48</v>
+      </c>
+      <c r="W30">
+        <v>26</v>
+      </c>
+      <c r="X30">
         <v>12</v>
       </c>
-      <c r="O30">
-        <v>39</v>
-      </c>
-      <c r="P30">
-        <v>0.308</v>
-      </c>
-      <c r="Q30">
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="Z30">
+        <v>11</v>
+      </c>
+      <c r="AA30">
         <v>15</v>
       </c>
-      <c r="R30">
-        <v>20</v>
-      </c>
-      <c r="S30">
-        <v>0.75</v>
-      </c>
-      <c r="T30">
-        <v>11</v>
-      </c>
-      <c r="U30">
-        <v>19</v>
-      </c>
-      <c r="V30">
-        <v>30</v>
-      </c>
-      <c r="W30">
-        <v>25</v>
-      </c>
-      <c r="X30">
-        <v>11</v>
-      </c>
-      <c r="Y30">
-        <v>10</v>
-      </c>
-      <c r="Z30">
-        <v>17</v>
-      </c>
-      <c r="AA30">
-        <v>18</v>
-      </c>
       <c r="AB30">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3376,79 +3403,79 @@
         <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I31">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="J31">
         <v>240</v>
       </c>
       <c r="K31">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L31">
         <v>84</v>
       </c>
       <c r="M31">
-        <v>0.524</v>
+        <v>0.476</v>
       </c>
       <c r="N31">
         <v>11</v>
       </c>
       <c r="O31">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="P31">
-        <v>0.324</v>
+        <v>0.407</v>
       </c>
       <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <v>36</v>
+      </c>
+      <c r="S31">
+        <v>0.833</v>
+      </c>
+      <c r="T31">
         <v>18</v>
       </c>
-      <c r="R31">
-        <v>24</v>
-      </c>
-      <c r="S31">
-        <v>0.75</v>
-      </c>
-      <c r="T31">
-        <v>8</v>
-      </c>
       <c r="U31">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="V31">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="W31">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="X31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AB31">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3462,79 +3489,79 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32">
         <v>6</v>
       </c>
-      <c r="G32">
-        <v>5</v>
-      </c>
       <c r="H32">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>0.462</v>
       </c>
       <c r="J32">
         <v>240</v>
       </c>
       <c r="K32">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L32">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M32">
-        <v>0.533</v>
+        <v>0.468</v>
       </c>
       <c r="N32">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P32">
-        <v>0.303</v>
+        <v>0.258</v>
       </c>
       <c r="Q32">
         <v>14</v>
       </c>
       <c r="R32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S32">
-        <v>0.737</v>
+        <v>0.778</v>
       </c>
       <c r="T32">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U32">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="V32">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="W32">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X32">
+        <v>9</v>
+      </c>
+      <c r="Y32">
         <v>7</v>
       </c>
-      <c r="Y32">
-        <v>5</v>
-      </c>
       <c r="Z32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB32">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:28">
@@ -3548,10 +3575,10 @@
         <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -3560,64 +3587,64 @@
         <v>5</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I33">
-        <v>0.556</v>
+        <v>0.417</v>
       </c>
       <c r="J33">
         <v>240</v>
       </c>
       <c r="K33">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L33">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M33">
-        <v>0.513</v>
+        <v>0.506</v>
       </c>
       <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>39</v>
+      </c>
+      <c r="P33">
+        <v>0.308</v>
+      </c>
+      <c r="Q33">
+        <v>15</v>
+      </c>
+      <c r="R33">
+        <v>20</v>
+      </c>
+      <c r="S33">
+        <v>0.75</v>
+      </c>
+      <c r="T33">
         <v>11</v>
       </c>
-      <c r="O33">
-        <v>33</v>
-      </c>
-      <c r="P33">
-        <v>0.333</v>
-      </c>
-      <c r="Q33">
-        <v>20</v>
-      </c>
-      <c r="R33">
-        <v>22</v>
-      </c>
-      <c r="S33">
-        <v>0.909</v>
-      </c>
-      <c r="T33">
-        <v>8</v>
-      </c>
       <c r="U33">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="V33">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="W33">
+        <v>25</v>
+      </c>
+      <c r="X33">
+        <v>11</v>
+      </c>
+      <c r="Y33">
+        <v>10</v>
+      </c>
+      <c r="Z33">
+        <v>17</v>
+      </c>
+      <c r="AA33">
         <v>18</v>
-      </c>
-      <c r="X33">
-        <v>5</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33">
-        <v>11</v>
-      </c>
-      <c r="AA33">
-        <v>22</v>
       </c>
       <c r="AB33">
         <v>113</v>
@@ -3634,79 +3661,79 @@
         <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>0.625</v>
+        <v>0.455</v>
       </c>
       <c r="J34">
         <v>240</v>
       </c>
       <c r="K34">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L34">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M34">
-        <v>0.484</v>
+        <v>0.524</v>
       </c>
       <c r="N34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O34">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P34">
-        <v>0.316</v>
+        <v>0.324</v>
       </c>
       <c r="Q34">
+        <v>18</v>
+      </c>
+      <c r="R34">
+        <v>24</v>
+      </c>
+      <c r="S34">
+        <v>0.75</v>
+      </c>
+      <c r="T34">
+        <v>8</v>
+      </c>
+      <c r="U34">
+        <v>32</v>
+      </c>
+      <c r="V34">
+        <v>40</v>
+      </c>
+      <c r="W34">
+        <v>26</v>
+      </c>
+      <c r="X34">
+        <v>6</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
         <v>17</v>
       </c>
-      <c r="R34">
-        <v>21</v>
-      </c>
-      <c r="S34">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="T34">
-        <v>9</v>
-      </c>
-      <c r="U34">
-        <v>38</v>
-      </c>
-      <c r="V34">
-        <v>47</v>
-      </c>
-      <c r="W34">
-        <v>33</v>
-      </c>
-      <c r="X34">
-        <v>11</v>
-      </c>
-      <c r="Y34">
-        <v>4</v>
-      </c>
-      <c r="Z34">
-        <v>15</v>
-      </c>
       <c r="AA34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB34">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3720,79 +3747,79 @@
         <v>60</v>
       </c>
       <c r="D35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>0.571</v>
+        <v>0.5</v>
       </c>
       <c r="J35">
         <v>240</v>
       </c>
       <c r="K35">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L35">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M35">
-        <v>0.517</v>
+        <v>0.533</v>
       </c>
       <c r="N35">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O35">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P35">
-        <v>0.417</v>
+        <v>0.303</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="R35">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="S35">
-        <v>0.8</v>
+        <v>0.737</v>
       </c>
       <c r="T35">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="W35">
         <v>29</v>
       </c>
       <c r="X35">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Y35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB35">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3806,79 +3833,79 @@
         <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36">
         <v>5</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>4</v>
       </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
       <c r="I36">
-        <v>0.667</v>
+        <v>0.556</v>
       </c>
       <c r="J36">
         <v>240</v>
       </c>
       <c r="K36">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L36">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M36">
-        <v>0.494</v>
+        <v>0.513</v>
       </c>
       <c r="N36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O36">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P36">
-        <v>0.313</v>
+        <v>0.333</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S36">
-        <v>0.609</v>
+        <v>0.909</v>
       </c>
       <c r="T36">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U36">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="V36">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="W36">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X36">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AA36">
         <v>22</v>
       </c>
       <c r="AB36">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:28">
@@ -3892,79 +3919,79 @@
         <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
         <v>3</v>
       </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
       <c r="I37">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="J37">
         <v>240</v>
       </c>
       <c r="K37">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L37">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M37">
-        <v>0.459</v>
+        <v>0.484</v>
       </c>
       <c r="N37">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O37">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P37">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S37">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U37">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="V37">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W37">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="X37">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA37">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AB37">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:28">
@@ -3978,79 +4005,79 @@
         <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
         <v>3</v>
       </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
       <c r="I38">
-        <v>0.75</v>
+        <v>0.571</v>
       </c>
       <c r="J38">
         <v>240</v>
       </c>
       <c r="K38">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L38">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M38">
-        <v>0.484</v>
+        <v>0.517</v>
       </c>
       <c r="N38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O38">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="P38">
-        <v>0.41</v>
+        <v>0.417</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="R38">
+        <v>25</v>
+      </c>
+      <c r="S38">
+        <v>0.8</v>
+      </c>
+      <c r="T38">
+        <v>5</v>
+      </c>
+      <c r="U38">
+        <v>33</v>
+      </c>
+      <c r="V38">
+        <v>38</v>
+      </c>
+      <c r="W38">
+        <v>29</v>
+      </c>
+      <c r="X38">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>3</v>
+      </c>
+      <c r="Z38">
+        <v>8</v>
+      </c>
+      <c r="AA38">
         <v>18</v>
       </c>
-      <c r="S38">
-        <v>0.778</v>
-      </c>
-      <c r="T38">
-        <v>12</v>
-      </c>
-      <c r="U38">
-        <v>28</v>
-      </c>
-      <c r="V38">
-        <v>40</v>
-      </c>
-      <c r="W38">
-        <v>25</v>
-      </c>
-      <c r="X38">
-        <v>12</v>
-      </c>
-      <c r="Y38">
-        <v>2</v>
-      </c>
-      <c r="Z38">
-        <v>9</v>
-      </c>
-      <c r="AA38">
-        <v>21</v>
-      </c>
       <c r="AB38">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -4064,19 +4091,19 @@
         <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
         <v>5</v>
       </c>
       <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
         <v>2</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
       </c>
       <c r="I39">
         <v>0.667</v>
@@ -4085,58 +4112,58 @@
         <v>240</v>
       </c>
       <c r="K39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L39">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M39">
-        <v>0.453</v>
+        <v>0.494</v>
       </c>
       <c r="N39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="P39">
-        <v>0.282</v>
+        <v>0.313</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R39">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="S39">
-        <v>0.765</v>
+        <v>0.609</v>
       </c>
       <c r="T39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U39">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V39">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="W39">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y39">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Z39">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AA39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB39">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -4150,76 +4177,76 @@
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J40">
         <v>240</v>
       </c>
       <c r="K40">
+        <v>39</v>
+      </c>
+      <c r="L40">
+        <v>85</v>
+      </c>
+      <c r="M40">
+        <v>0.459</v>
+      </c>
+      <c r="N40">
+        <v>10</v>
+      </c>
+      <c r="O40">
+        <v>30</v>
+      </c>
+      <c r="P40">
+        <v>0.333</v>
+      </c>
+      <c r="Q40">
+        <v>14</v>
+      </c>
+      <c r="R40">
+        <v>20</v>
+      </c>
+      <c r="S40">
+        <v>0.7</v>
+      </c>
+      <c r="T40">
+        <v>10</v>
+      </c>
+      <c r="U40">
+        <v>27</v>
+      </c>
+      <c r="V40">
         <v>37</v>
       </c>
-      <c r="L40">
-        <v>93</v>
-      </c>
-      <c r="M40">
-        <v>0.398</v>
-      </c>
-      <c r="N40">
-        <v>13</v>
-      </c>
-      <c r="O40">
-        <v>41</v>
-      </c>
-      <c r="P40">
-        <v>0.317</v>
-      </c>
-      <c r="Q40">
-        <v>15</v>
-      </c>
-      <c r="R40">
-        <v>18</v>
-      </c>
-      <c r="S40">
-        <v>0.833</v>
-      </c>
-      <c r="T40">
-        <v>12</v>
-      </c>
-      <c r="U40">
-        <v>34</v>
-      </c>
-      <c r="V40">
-        <v>46</v>
-      </c>
       <c r="W40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X40">
         <v>6</v>
       </c>
       <c r="Y40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA40">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB40">
         <v>102</v>
@@ -4236,70 +4263,70 @@
         <v>66</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F41" t="s">
         <v>5</v>
       </c>
       <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
         <v>1</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J41">
         <v>240</v>
       </c>
       <c r="K41">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L41">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="M41">
-        <v>0.412</v>
+        <v>0.484</v>
       </c>
       <c r="N41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O41">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="P41">
-        <v>0.432</v>
+        <v>0.41</v>
       </c>
       <c r="Q41">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R41">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S41">
-        <v>0.739</v>
+        <v>0.778</v>
       </c>
       <c r="T41">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="U41">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="V41">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="W41">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X41">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Y41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z41">
         <v>9</v>
@@ -4308,6 +4335,264 @@
         <v>21</v>
       </c>
       <c r="AB41">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1610612742</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0.667</v>
+      </c>
+      <c r="J42">
+        <v>240</v>
+      </c>
+      <c r="K42">
+        <v>43</v>
+      </c>
+      <c r="L42">
+        <v>95</v>
+      </c>
+      <c r="M42">
+        <v>0.453</v>
+      </c>
+      <c r="N42">
+        <v>11</v>
+      </c>
+      <c r="O42">
+        <v>39</v>
+      </c>
+      <c r="P42">
+        <v>0.282</v>
+      </c>
+      <c r="Q42">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <v>17</v>
+      </c>
+      <c r="S42">
+        <v>0.765</v>
+      </c>
+      <c r="T42">
+        <v>13</v>
+      </c>
+      <c r="U42">
+        <v>37</v>
+      </c>
+      <c r="V42">
+        <v>50</v>
+      </c>
+      <c r="W42">
+        <v>27</v>
+      </c>
+      <c r="X42">
+        <v>9</v>
+      </c>
+      <c r="Y42">
+        <v>12</v>
+      </c>
+      <c r="Z42">
+        <v>13</v>
+      </c>
+      <c r="AA42">
+        <v>23</v>
+      </c>
+      <c r="AB42">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1610612742</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.5</v>
+      </c>
+      <c r="J43">
+        <v>240</v>
+      </c>
+      <c r="K43">
+        <v>37</v>
+      </c>
+      <c r="L43">
+        <v>93</v>
+      </c>
+      <c r="M43">
+        <v>0.398</v>
+      </c>
+      <c r="N43">
+        <v>13</v>
+      </c>
+      <c r="O43">
+        <v>41</v>
+      </c>
+      <c r="P43">
+        <v>0.317</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
+      </c>
+      <c r="R43">
+        <v>18</v>
+      </c>
+      <c r="S43">
+        <v>0.833</v>
+      </c>
+      <c r="T43">
+        <v>12</v>
+      </c>
+      <c r="U43">
+        <v>34</v>
+      </c>
+      <c r="V43">
+        <v>46</v>
+      </c>
+      <c r="W43">
+        <v>22</v>
+      </c>
+      <c r="X43">
+        <v>6</v>
+      </c>
+      <c r="Y43">
+        <v>2</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>28</v>
+      </c>
+      <c r="AB43">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1610612742</v>
+      </c>
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>240</v>
+      </c>
+      <c r="K44">
+        <v>42</v>
+      </c>
+      <c r="L44">
+        <v>102</v>
+      </c>
+      <c r="M44">
+        <v>0.412</v>
+      </c>
+      <c r="N44">
+        <v>19</v>
+      </c>
+      <c r="O44">
+        <v>44</v>
+      </c>
+      <c r="P44">
+        <v>0.432</v>
+      </c>
+      <c r="Q44">
+        <v>17</v>
+      </c>
+      <c r="R44">
+        <v>23</v>
+      </c>
+      <c r="S44">
+        <v>0.739</v>
+      </c>
+      <c r="T44">
+        <v>17</v>
+      </c>
+      <c r="U44">
+        <v>33</v>
+      </c>
+      <c r="V44">
+        <v>50</v>
+      </c>
+      <c r="W44">
+        <v>27</v>
+      </c>
+      <c r="X44">
+        <v>9</v>
+      </c>
+      <c r="Y44">
+        <v>5</v>
+      </c>
+      <c r="Z44">
+        <v>9</v>
+      </c>
+      <c r="AA44">
+        <v>21</v>
+      </c>
+      <c r="AB44">
         <v>120</v>
       </c>
     </row>
